--- a/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
@@ -2780,7 +2780,7 @@
         <v>107</v>
       </c>
       <c r="D150">
-        <v>98.72</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>105.5</v>
       </c>
       <c r="D151">
-        <v>99.37</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2766,7 +2769,7 @@
         <v>112.04</v>
       </c>
       <c r="D149">
-        <v>100.87</v>
+        <v>100.86</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2794,7 +2797,18 @@
         <v>105.5</v>
       </c>
       <c r="D151">
-        <v>99.40000000000001</v>
+        <v>99.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>771.4299999999999</v>
+      </c>
+      <c r="C152">
+        <v>112.69</v>
       </c>
     </row>
   </sheetData>

--- a/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Trimestral.xlsx
@@ -2713,7 +2713,7 @@
         <v>111.91</v>
       </c>
       <c r="D145">
-        <v>100.35</v>
+        <v>100.33</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2727,7 +2727,7 @@
         <v>117.97</v>
       </c>
       <c r="D146">
-        <v>105.23</v>
+        <v>105.47</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2741,7 +2741,7 @@
         <v>117</v>
       </c>
       <c r="D147">
-        <v>102.78</v>
+        <v>103.62</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>112.79</v>
       </c>
       <c r="D148">
-        <v>100.85</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2769,7 +2769,7 @@
         <v>112.04</v>
       </c>
       <c r="D149">
-        <v>100.86</v>
+        <v>101.03</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2783,7 +2783,7 @@
         <v>107</v>
       </c>
       <c r="D150">
-        <v>98.69</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2797,7 +2797,7 @@
         <v>105.5</v>
       </c>
       <c r="D151">
-        <v>99.36</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2809,6 +2809,9 @@
       </c>
       <c r="C152">
         <v>112.69</v>
+      </c>
+      <c r="D152">
+        <v>105.09</v>
       </c>
     </row>
   </sheetData>
